--- a/10-Options Core 选项核心.xlsx
+++ b/10-Options Core 选项核心.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="键位绑定" sheetId="2" r:id="rId1"/>
+    <sheet name="插件参数 汉化部分" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,718 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="206">
+  <si>
+    <t>Keyboard/Controller Rebind Settings    键盘/手柄 绑定设置</t>
+  </si>
+  <si>
+    <t>需要 VisuMZ_0_CoreEngine!</t>
+  </si>
+  <si>
+    <t>键盘限制</t>
+  </si>
+  <si>
+    <t>并非所有键盘键都有资格重新绑定。只允许使用特定的一组按键。它们如下：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">·第一行的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 到 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·波浪号(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)，减号(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)，加号/等于号(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+/=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 到 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 键</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[ ] \ ; ' &lt; &gt; /</t>
+    </r>
+  </si>
+  <si>
+    <t>只有这些键可用的原因是为了避免碰到任何其他系统绑定键，如功能键、大写锁等。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这些键还将作为第二套控制，默认控件绑定到 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>箭头键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Enter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Space</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Escape </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numpad</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>这样，玩家就无法将自己软锁定在按键重新绑定场景之外。</t>
+  </si>
+  <si>
+    <t>手柄限制</t>
+  </si>
+  <si>
+    <t>就像键盘一样，并非控制器上的所有内容都有资格重新绑定。</t>
+  </si>
+  <si>
+    <t>然而，这些限制要小得多，因为这些限制只禁止重新绑定D-Pad。</t>
+  </si>
+  <si>
+    <t>这是由于D-Pad操作对于某些控制器可能是硬编码的，因此最好不要使用。</t>
+  </si>
+  <si>
+    <t>游戏手柄不能像键盘那样从绑定中删除单个按键。</t>
+  </si>
+  <si>
+    <t>这是因为没有回退键可以防止软锁发生。</t>
+  </si>
+  <si>
+    <t>相反，他们获得了重置控制器的功能。</t>
+  </si>
+  <si>
+    <t>Rebind Plugin Parameters  绑定插件参数</t>
+  </si>
+  <si>
+    <t>General Settings:</t>
+  </si>
+  <si>
+    <t>常规设置</t>
+  </si>
+  <si>
+    <t>Enable Rebinding?:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">是否启用键盘和控制器重新绑定？  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要VisuMZ_0_CoreEngine！</t>
+    </r>
+  </si>
+  <si>
+    <t>Keyboard Bindings:</t>
+  </si>
+  <si>
+    <t>键盘绑定：选择可以作用的按键及其在键盘上的显示顺序。</t>
+  </si>
+  <si>
+    <t>Gamepad Bindings:</t>
+  </si>
+  <si>
+    <t>游戏手柄绑定：选择可以作用的按键及其在游戏手柄上的显示顺序。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JS: Reset Gamepad:</t>
+  </si>
+  <si>
+    <t>重置游戏手柄：确定重置时游戏手柄映射的状态。</t>
+  </si>
+  <si>
+    <t>Vocabulary:</t>
+  </si>
+  <si>
+    <t>词汇</t>
+  </si>
+  <si>
+    <t>Button Vocab:</t>
+  </si>
+  <si>
+    <t>按钮词汇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Up:
+   Left:
+   Down:
+   Right:
+   OK:
+   Escape:
+   Cancel:
+   Menu:
+   Page Up:
+   Page Down:
+   Shift:
+   Tab:</t>
+  </si>
+  <si>
+    <t>用于表示此输入类型的文本。允许使用文本代码。</t>
+  </si>
+  <si>
+    <t>Button Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">按钮格式：未分配游戏手柄按钮的文本格式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·允许使用文本代码。
+·%1-按钮ID。</t>
+    </r>
+  </si>
+  <si>
+    <t>D-Pad Format:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D-Pad格式：方向键按钮的文本格式。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·允许使用文本代码。
+·%1-方向。</t>
+    </r>
+  </si>
+  <si>
+    <t>Button Assist:</t>
+  </si>
+  <si>
+    <t>按钮辅助：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Shift: Remove:
+   Shift: Reset:
+   OK: Select:
+   Cancel: Exit:</t>
+  </si>
+  <si>
+    <t>用于表示此按钮辅助的文本。</t>
+  </si>
+  <si>
+    <t>Help Descriptions:</t>
+  </si>
+  <si>
+    <t>帮助说明</t>
+  </si>
+  <si>
+    <t>Select for Keyboard:</t>
+  </si>
+  <si>
+    <r>
+      <t>选择键盘：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择键盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>按钮的帮助说明。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>Select a key to rebind/change.</t>
+  </si>
+  <si>
+    <t>选择要重新绑定/更改的按键。</t>
+  </si>
+  <si>
+    <t>Keyboard Instruct:</t>
+  </si>
+  <si>
+    <r>
+      <t>键盘说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帮助描述用于请求按键。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>Press a keyboard button to assign this control.</t>
+  </si>
+  <si>
+    <t>按下键盘按钮，以分配此控制。</t>
+  </si>
+  <si>
+    <t>Forbidden Key:</t>
+  </si>
+  <si>
+    <r>
+      <t>禁用按键：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无法使用键盘按键时使用的帮助说明。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>That key cannot be bound to a control.</t>
+  </si>
+  <si>
+    <t>该按键不能绑定到控制。</t>
+  </si>
+  <si>
+    <t>Select for Gamepad:</t>
+  </si>
+  <si>
+    <r>
+      <t>选择游戏手柄：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于选择游戏手柄按钮的帮助说明。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>Select a button to rebind/change.</t>
+  </si>
+  <si>
+    <t>选择一个按钮以重新绑定/更改。</t>
+  </si>
+  <si>
+    <t>Gamepad Instructions:</t>
+  </si>
+  <si>
+    <r>
+      <t>游戏手柄说明：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帮助描述用于请求按下游戏手柄按钮。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>Press a gamepad button to assign this control.</t>
+  </si>
+  <si>
+    <t>按下游戏手柄按钮，以分配此控制。</t>
+  </si>
+  <si>
+    <t>Forbidden Button:</t>
+  </si>
+  <si>
+    <r>
+      <t>禁用按钮：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当游戏手柄按钮无法重新分配时使用的帮助描述。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>This button cannot be reassigned.</t>
+  </si>
+  <si>
+    <t>无法重新分配此按钮。</t>
+  </si>
+  <si>
+    <t>No Gamepad Detected:</t>
+  </si>
+  <si>
+    <r>
+      <t>未检测到游戏手柄：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>未检测到游戏手柄时使用的帮助描述。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>允许使用文本代码。</t>
+    </r>
+  </si>
+  <si>
+    <t>No gamepad is detected!</t>
+  </si>
+  <si>
+    <t>未检测到游戏手柄！</t>
+  </si>
   <si>
     <t>Options Settings</t>
   </si>
@@ -58,6 +769,9 @@
     <t>常规</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
     <t>\C[16]探索</t>
   </si>
   <si>
@@ -112,6 +826,12 @@
     <t>显示FPS</t>
   </si>
   <si>
+    <t>limitFPS</t>
+  </si>
+  <si>
+    <t>限制FPS</t>
+  </si>
+  <si>
     <t>fullScreen</t>
   </si>
   <si>
@@ -128,6 +848,24 @@
   </si>
   <si>
     <t>特殊效果</t>
+  </si>
+  <si>
+    <t>\C[16]控制</t>
+  </si>
+  <si>
+    <t>\HexColor&lt;#fbe5b7&gt;控制</t>
+  </si>
+  <si>
+    <t>rebindKeyboard</t>
+  </si>
+  <si>
+    <t>重新绑定键盘控制</t>
+  </si>
+  <si>
+    <t>rebindGamepad</t>
+  </si>
+  <si>
+    <t>重新绑定手柄控制</t>
   </si>
   <si>
     <t>2 - Name</t>
@@ -330,7 +1068,7 @@
     <t>assistInstantKO</t>
   </si>
   <si>
-    <t>即时K.O.</t>
+    <t>立即K.O.</t>
   </si>
   <si>
     <t>assistSkillCosts</t>
@@ -415,7 +1153,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -447,6 +1185,38 @@
     <font>
       <sz val="11"/>
       <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -595,8 +1365,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +1397,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,12 +1593,111 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -916,137 +1818,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,6 +1984,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1431,595 +2399,361 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="94.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="12" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="9" spans="2:2">
+      <c r="B9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="12" spans="2:2">
+      <c r="B12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="25" s="12" customFormat="1" ht="18.75" spans="1:1">
+      <c r="A25" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B26" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B27" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B32" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B33" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    </row>
+    <row r="34" ht="162" spans="1:2">
+      <c r="A34" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="35" ht="37.5" spans="1:2">
+      <c r="A35" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B35" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="4" t="s">
+    <row r="36" ht="37.5" spans="1:2">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B36" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="4" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B37" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4">
-        <v>9</v>
-      </c>
-      <c r="B25" s="6" t="s">
+    <row r="38" ht="54" spans="1:2">
+      <c r="A38" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="4" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B40" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="4" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B41" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="4" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="26"/>
+      <c r="B42" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="28"/>
+      <c r="B43" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="4" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B44" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="4" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="26"/>
+      <c r="B45" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="6" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B47" s="25" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="4">
-        <v>1</v>
-      </c>
-      <c r="B33" s="6" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="4" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B50" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="26"/>
+      <c r="B51" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B53" s="25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="26"/>
+      <c r="B54" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C37" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="28"/>
+      <c r="B55" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="4" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B56" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="4">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="28"/>
+      <c r="B58" s="29" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="4" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B59" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="4" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="28"/>
+      <c r="B61" s="33" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="4">
-        <v>15</v>
-      </c>
-      <c r="B42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" ht="27" spans="1:4">
-      <c r="A43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="4">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:3">
-      <c r="A47" s="7"/>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="4">
-        <v>1</v>
-      </c>
-      <c r="B49" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="4">
-        <v>4</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>98</v>
-      </c>
-      <c r="B57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>100</v>
-      </c>
-      <c r="B58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
-        <v>15</v>
-      </c>
-      <c r="B60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
-        <v>20</v>
-      </c>
-      <c r="B64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
-        <v>25</v>
-      </c>
-      <c r="B68" t="s">
-        <v>120</v>
-      </c>
-      <c r="C68" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2032,14 +2766,646 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:3">
+      <c r="A21" s="4">
+        <v>35</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4">
+        <v>11</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="4">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:3">
+      <c r="A52" s="7"/>
+      <c r="C52" s="9"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>182</v>
+      </c>
+      <c r="B63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
